--- a/SuSS/2022_Sem1_ANL488_Biz_Analy_App_Proj/2022_Sem2/Final_Selection_MK.xlsx
+++ b/SuSS/2022_Sem1_ANL488_Biz_Analy_App_Proj/2022_Sem2/Final_Selection_MK.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\quant\Documents\GitHub\SuSS\2022_Sem1_ANL488_Biz_Analy_App_Proj\2022_Sem2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkumar\Documents\GitHub\munishkumar-gh.github.io\SuSS\2022_Sem1_ANL488_Biz_Analy_App_Proj\2022_Sem2\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ABAFEBB-429E-4D8F-915E-DD1B00675D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>wxtan008@suss.edu.sg</t>
   </si>
@@ -105,12 +106,30 @@
   </si>
   <si>
     <t>Topic Number</t>
+  </si>
+  <si>
+    <t>jqseow001@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>SEOW JIA QI (UC-FT)</t>
+  </si>
+  <si>
+    <t>GOH JUN XIAN</t>
+  </si>
+  <si>
+    <t>jxgoh004@suss.edu.sg</t>
+  </si>
+  <si>
+    <t>CALEB CHIA WE KEAT (UC-FT)</t>
+  </si>
+  <si>
+    <t>calebchia002@suss.edu.sg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -128,7 +147,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -147,8 +166,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="16">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -373,6 +398,80 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -380,7 +479,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -391,58 +490,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -725,11 +857,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,164 +874,160 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="27">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="28"/>
+      <c r="B3" s="30"/>
+      <c r="C3" s="31">
+        <v>2</v>
+      </c>
+      <c r="D3" s="31" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E3" s="32" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="16">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B4" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C4" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D4" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11">
+    <row r="5" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D5" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="7">
+        <v>3</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E6" s="12" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
-      <c r="C5" s="3">
+    <row r="7" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="17"/>
+      <c r="B7" s="19"/>
+      <c r="C7" s="3">
         <v>3</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E7" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="8" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="11">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C8" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E8" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B9" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D9" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E9" s="8" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11">
+    <row r="10" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E10" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11">
+    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="20"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="7">
         <v>3</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3">
-        <v>4</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
-        <v>17</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="7">
-        <v>1</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>6</v>
@@ -909,62 +1037,108 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
-        <v>18</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="7">
+      <c r="A13" s="16">
+        <v>17</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>2</v>
+      <c r="D13" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
       <c r="C14" s="3">
         <v>2</v>
       </c>
       <c r="D14" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="17"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="3">
+        <v>3</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>18</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="C16" s="5">
         <v>1</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="D16" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="17"/>
+      <c r="B17" s="19"/>
+      <c r="C17" s="3">
+        <v>2</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E17" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:B5"/>
-    <mergeCell ref="A7:A10"/>
-    <mergeCell ref="B7:B10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
+  <mergeCells count="10">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="A4:A7"/>
+    <mergeCell ref="B4:B7"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="B9:B12"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1"/>
-    <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E9" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E14" r:id="rId3" xr:uid="{82C86022-DC2D-4384-9ED9-5B756984DB1A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SuSS/2022_Sem1_ANL488_Biz_Analy_App_Proj/2022_Sem2/Final_Selection_MK.xlsx
+++ b/SuSS/2022_Sem1_ANL488_Biz_Analy_App_Proj/2022_Sem2/Final_Selection_MK.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -391,58 +391,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,7 +729,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="40.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -742,72 +742,72 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="14" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="19" t="s">
+      <c r="E1" s="13" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="17">
+      <c r="A2" s="11">
         <v>13</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="16">
+      <c r="C2" s="10">
         <v>1</v>
       </c>
-      <c r="D2" s="16" t="s">
+      <c r="D2" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="9">
+      <c r="A3" s="16">
         <v>14</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="5">
         <v>1</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="13"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="11">
+      <c r="A4" s="20"/>
+      <c r="B4" s="21"/>
+      <c r="C4" s="7">
         <v>2</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="12" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="17"/>
+      <c r="B5" s="19"/>
       <c r="C5" s="3">
         <v>3</v>
       </c>
@@ -819,68 +819,68 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+      <c r="A6" s="11">
         <v>15</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="C6" s="16">
+      <c r="C6" s="10">
         <v>1</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="9" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="9">
+      <c r="A7" s="16">
         <v>16</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="5">
         <v>1</v>
       </c>
-      <c r="D7" s="7" t="s">
+      <c r="D7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="8" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13"/>
-      <c r="B8" s="12"/>
-      <c r="C8" s="11">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="7">
         <v>2</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="6" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13"/>
-      <c r="B9" s="12"/>
-      <c r="C9" s="11">
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="7">
         <v>3</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="10" t="s">
+      <c r="E9" s="6" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="5"/>
-      <c r="B10" s="4"/>
+      <c r="A10" s="17"/>
+      <c r="B10" s="19"/>
       <c r="C10" s="3">
         <v>4</v>
       </c>
@@ -892,25 +892,25 @@
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="9">
+      <c r="A11" s="16">
         <v>17</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="5">
         <v>1</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="E11" s="6" t="s">
+      <c r="E11" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="5"/>
-      <c r="B12" s="4"/>
+      <c r="A12" s="17"/>
+      <c r="B12" s="19"/>
       <c r="C12" s="3">
         <v>2</v>
       </c>
@@ -922,25 +922,25 @@
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="9">
+      <c r="A13" s="16">
         <v>18</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="5">
         <v>1</v>
       </c>
-      <c r="D13" s="7" t="s">
+      <c r="D13" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5"/>
-      <c r="B14" s="4"/>
+      <c r="A14" s="17"/>
+      <c r="B14" s="19"/>
       <c r="C14" s="3">
         <v>2</v>
       </c>
